--- a/irace/results/scaled/benchmark.xlsx
+++ b/irace/results/scaled/benchmark.xlsx
@@ -174,6 +174,782 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$T$4:$T$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-18.585981805676326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.376771150279972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.6860715579192131</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.656956292322581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.283084598511895</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.342610342517954</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.815829264632892</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.207688769457967</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.106074755166055</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.220367517999794</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.400341614608831</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24.544999755966625</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.19141275310697</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.593279010520988</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>RAS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$U$4:$U$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-18.598894324980208</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.3198782924941068</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7876176237797932</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7221555059949303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.47679669691626</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14.003857080167215</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15.497881967288803</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.529272322390629</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>20.381245741812307</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.094660549563187</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23.169317549083697</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23.673388974460018</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>28.428268606211454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.546169034805839</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MMAS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$V$4:$V$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-19.87606576949532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.6077093423113489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4140357048632528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.5189950629991826</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.2673338181146612</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.5238484366263876</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.91946324225696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.953451619854903</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.394016301430042</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17.131721015808463</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.492481599831113</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.675108356915143</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.887983508683217</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.088389020093679</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>ACS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$W$4:$W$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-19.656033845075729</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.8626469582125522</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.6309251604959982</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2228131373782358</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.7209968027517046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.4935469195220721</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.2396701850012679</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.759358680267461</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.418791003946071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.876736484452287</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.817879110650516</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.191424580005023</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31.060947861768529</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.734832939718906</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>BWAS</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$X$4:$X$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-16.539444826556977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0531840195884268</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.4680429271268212</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3741535485005727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.5856389302492</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18.214079497424756</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.766467926154739</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.426893514120394</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>23.763726877836895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>25.800711743772244</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.723538772525906</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35.697746892574422</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.393652398825381</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.847225986294468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Tuned</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>benchmark!$Y$4:$Y$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>-31.32745889406544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.2009806029848109</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-6.8559273590713179</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.9970293286282699</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.308056023211654</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.2662078204032636</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.2379583780601831</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.58170442659605281</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.86997960389622098</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0026817996791419</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8611857554409634</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.3458197081360797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.7920941577296801</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.9107563057894459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>benchmark!$L$4:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>7.1428571428571425E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14285714285714285</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.35714285714285715</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.42857142857142855</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5714285714285714</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.7142857142857143</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.8571428571428571</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.9285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="45725184"/>
+        <c:axId val="45723648"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="45725184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45723648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="45723648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="45725184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -465,8 +1241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="W31" sqref="W31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,27 +1359,27 @@
         <v>7.1428571428571425E-2</v>
       </c>
       <c r="M4" s="1">
-        <f>(D4-$C4)/$C4*100</f>
+        <f t="shared" ref="M4:R4" si="0">(D4-$C4)/$C4*100</f>
         <v>8.6860715579192131</v>
       </c>
       <c r="N4" s="1">
-        <f>(E4-$C4)/$C4*100</f>
+        <f t="shared" si="0"/>
         <v>5.7221555059949303</v>
       </c>
       <c r="O4" s="1">
-        <f>(F4-$C4)/$C4*100</f>
+        <f t="shared" si="0"/>
         <v>3.5189950629991826</v>
       </c>
       <c r="P4" s="1">
-        <f>(G4-$C4)/$C4*100</f>
+        <f t="shared" si="0"/>
         <v>1.2228131373782358</v>
       </c>
       <c r="Q4" s="1">
-        <f>(H4-$C4)/$C4*100</f>
+        <f t="shared" si="0"/>
         <v>6.4680429271268212</v>
       </c>
       <c r="R4" s="1">
-        <f>(I4-$C4)/$C4*100</f>
+        <f t="shared" si="0"/>
         <v>0.86997960389622098</v>
       </c>
       <c r="T4" s="1">
@@ -654,31 +1430,31 @@
         <v>2</v>
       </c>
       <c r="L5" s="1">
-        <f t="shared" ref="L5:L17" si="0">K5/14</f>
+        <f t="shared" ref="L5:L17" si="1">K5/14</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="M5" s="1">
-        <f>(D5-$C5)/$C5*100</f>
+        <f t="shared" ref="M5:M17" si="2">(D5-$C5)/$C5*100</f>
         <v>20.106074755166055</v>
       </c>
       <c r="N5" s="1">
-        <f>(E5-$C5)/$C5*100</f>
+        <f t="shared" ref="N5:N17" si="3">(E5-$C5)/$C5*100</f>
         <v>17.529272322390629</v>
       </c>
       <c r="O5" s="1">
-        <f>(F5-$C5)/$C5*100</f>
+        <f t="shared" ref="O5:O17" si="4">(F5-$C5)/$C5*100</f>
         <v>12.953451619854903</v>
       </c>
       <c r="P5" s="1">
-        <f>(G5-$C5)/$C5*100</f>
+        <f t="shared" ref="P5:P17" si="5">(G5-$C5)/$C5*100</f>
         <v>6.4935469195220721</v>
       </c>
       <c r="Q5" s="1">
-        <f>(H5-$C5)/$C5*100</f>
+        <f t="shared" ref="Q5:Q17" si="6">(H5-$C5)/$C5*100</f>
         <v>20.766467926154739</v>
       </c>
       <c r="R5" s="1">
-        <f t="shared" ref="R5:R17" si="1">(I5-$C5)/$C5*100</f>
+        <f t="shared" ref="R5:R17" si="7">(I5-$C5)/$C5*100</f>
         <v>1.0026817996791419</v>
       </c>
       <c r="T5" s="1">
@@ -729,31 +1505,31 @@
         <v>3</v>
       </c>
       <c r="L6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.21428571428571427</v>
       </c>
       <c r="M6" s="1">
-        <f>(D6-$C6)/$C6*100</f>
+        <f t="shared" si="2"/>
         <v>18.207688769457967</v>
       </c>
       <c r="N6" s="1">
-        <f>(E6-$C6)/$C6*100</f>
+        <f t="shared" si="3"/>
         <v>23.169317549083697</v>
       </c>
       <c r="O6" s="1">
-        <f>(F6-$C6)/$C6*100</f>
+        <f t="shared" si="4"/>
         <v>17.131721015808463</v>
       </c>
       <c r="P6" s="1">
-        <f>(G6-$C6)/$C6*100</f>
+        <f t="shared" si="5"/>
         <v>13.418791003946071</v>
       </c>
       <c r="Q6" s="1">
-        <f>(H6-$C6)/$C6*100</f>
+        <f t="shared" si="6"/>
         <v>25.800711743772244</v>
       </c>
       <c r="R6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>1.8611857554409634</v>
       </c>
       <c r="T6" s="1">
@@ -804,31 +1580,31 @@
         <v>4</v>
       </c>
       <c r="L7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="M7" s="1">
-        <f>(D7-$C7)/$C7*100</f>
+        <f t="shared" si="2"/>
         <v>28.593279010520988</v>
       </c>
       <c r="N7" s="1">
-        <f>(E7-$C7)/$C7*100</f>
+        <f t="shared" si="3"/>
         <v>28.428268606211454</v>
       </c>
       <c r="O7" s="1">
-        <f>(F7-$C7)/$C7*100</f>
+        <f t="shared" si="4"/>
         <v>24.887983508683217</v>
       </c>
       <c r="P7" s="1">
-        <f>(G7-$C7)/$C7*100</f>
+        <f t="shared" si="5"/>
         <v>31.060947861768529</v>
       </c>
       <c r="Q7" s="1">
-        <f>(H7-$C7)/$C7*100</f>
+        <f t="shared" si="6"/>
         <v>43.393652398825381</v>
       </c>
       <c r="R7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.9107563057894459</v>
       </c>
       <c r="T7" s="1">
@@ -879,31 +1655,31 @@
         <v>5</v>
       </c>
       <c r="L8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.35714285714285715</v>
       </c>
       <c r="M8" s="1">
-        <f>(D8-$C8)/$C8*100</f>
+        <f t="shared" si="2"/>
         <v>28.19141275310697</v>
       </c>
       <c r="N8" s="1">
-        <f>(E8-$C8)/$C8*100</f>
+        <f t="shared" si="3"/>
         <v>31.546169034805839</v>
       </c>
       <c r="O8" s="1">
-        <f>(F8-$C8)/$C8*100</f>
+        <f t="shared" si="4"/>
         <v>27.088389020093679</v>
       </c>
       <c r="P8" s="1">
-        <f>(G8-$C8)/$C8*100</f>
+        <f t="shared" si="5"/>
         <v>34.734832939718906</v>
       </c>
       <c r="Q8" s="1">
-        <f>(H8-$C8)/$C8*100</f>
+        <f t="shared" si="6"/>
         <v>49.847225986294468</v>
       </c>
       <c r="R8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.7920941577296801</v>
       </c>
       <c r="T8" s="1">
@@ -954,31 +1730,31 @@
         <v>6</v>
       </c>
       <c r="L9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="M9" s="1">
-        <f>(D9-$C9)/$C9*100</f>
+        <f t="shared" si="2"/>
         <v>1.376771150279972</v>
       </c>
       <c r="N9" s="1">
-        <f>(E9-$C9)/$C9*100</f>
+        <f t="shared" si="3"/>
         <v>1.3198782924941068</v>
       </c>
       <c r="O9" s="1">
-        <f>(F9-$C9)/$C9*100</f>
+        <f t="shared" si="4"/>
         <v>-2.6077093423113489</v>
       </c>
       <c r="P9" s="1">
-        <f>(G9-$C9)/$C9*100</f>
+        <f t="shared" si="5"/>
         <v>-2.8626469582125522</v>
       </c>
       <c r="Q9" s="1">
-        <f>(H9-$C9)/$C9*100</f>
+        <f t="shared" si="6"/>
         <v>2.0531840195884268</v>
       </c>
       <c r="R9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-4.9970293286282699</v>
       </c>
       <c r="T9" s="1">
@@ -1029,31 +1805,31 @@
         <v>7</v>
       </c>
       <c r="L10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="M10" s="1">
-        <f>(D10-$C10)/$C10*100</f>
+        <f t="shared" si="2"/>
         <v>11.656956292322581</v>
       </c>
       <c r="N10" s="1">
-        <f>(E10-$C10)/$C10*100</f>
+        <f t="shared" si="3"/>
         <v>4.7876176237797932</v>
       </c>
       <c r="O10" s="1">
-        <f>(F10-$C10)/$C10*100</f>
+        <f t="shared" si="4"/>
         <v>2.4140357048632528</v>
       </c>
       <c r="P10" s="1">
-        <f>(G10-$C10)/$C10*100</f>
+        <f t="shared" si="5"/>
         <v>-2.6309251604959982</v>
       </c>
       <c r="Q10" s="1">
-        <f>(H10-$C10)/$C10*100</f>
+        <f t="shared" si="6"/>
         <v>8.3741535485005727</v>
       </c>
       <c r="R10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-6.8559273590713179</v>
       </c>
       <c r="T10" s="1">
@@ -1104,31 +1880,31 @@
         <v>8</v>
       </c>
       <c r="L11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="M11" s="1">
-        <f>(D11-$C11)/$C11*100</f>
+        <f t="shared" si="2"/>
         <v>13.342610342517954</v>
       </c>
       <c r="N11" s="1">
-        <f>(E11-$C11)/$C11*100</f>
+        <f t="shared" si="3"/>
         <v>14.003857080167215</v>
       </c>
       <c r="O11" s="1">
-        <f>(F11-$C11)/$C11*100</f>
+        <f t="shared" si="4"/>
         <v>10.91946324225696</v>
       </c>
       <c r="P11" s="1">
-        <f>(G11-$C11)/$C11*100</f>
+        <f t="shared" si="5"/>
         <v>9.2396701850012679</v>
       </c>
       <c r="Q11" s="1">
-        <f>(H11-$C11)/$C11*100</f>
+        <f t="shared" si="6"/>
         <v>18.214079497424756</v>
       </c>
       <c r="R11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-2.2662078204032636</v>
       </c>
       <c r="T11" s="1">
@@ -1179,31 +1955,31 @@
         <v>9</v>
       </c>
       <c r="L12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="M12" s="1">
-        <f>(D12-$C12)/$C12*100</f>
+        <f t="shared" si="2"/>
         <v>12.283084598511895</v>
       </c>
       <c r="N12" s="1">
-        <f>(E12-$C12)/$C12*100</f>
+        <f t="shared" si="3"/>
         <v>12.47679669691626</v>
       </c>
       <c r="O12" s="1">
-        <f>(F12-$C12)/$C12*100</f>
+        <f t="shared" si="4"/>
         <v>8.5238484366263876</v>
       </c>
       <c r="P12" s="1">
-        <f>(G12-$C12)/$C12*100</f>
+        <f t="shared" si="5"/>
         <v>13.876736484452287</v>
       </c>
       <c r="Q12" s="1">
-        <f>(H12-$C12)/$C12*100</f>
+        <f t="shared" si="6"/>
         <v>27.723538772525906</v>
       </c>
       <c r="R12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-7.2009806029848109</v>
       </c>
       <c r="T12" s="1">
@@ -1254,31 +2030,31 @@
         <v>10</v>
       </c>
       <c r="L13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="M13" s="1">
-        <f>(D13-$C13)/$C13*100</f>
+        <f t="shared" si="2"/>
         <v>20.220367517999794</v>
       </c>
       <c r="N13" s="1">
-        <f>(E13-$C13)/$C13*100</f>
+        <f t="shared" si="3"/>
         <v>23.673388974460018</v>
       </c>
       <c r="O13" s="1">
-        <f>(F13-$C13)/$C13*100</f>
+        <f t="shared" si="4"/>
         <v>19.675108356915143</v>
       </c>
       <c r="P13" s="1">
-        <f>(G13-$C13)/$C13*100</f>
+        <f t="shared" si="5"/>
         <v>20.191424580005023</v>
       </c>
       <c r="Q13" s="1">
-        <f>(H13-$C13)/$C13*100</f>
+        <f t="shared" si="6"/>
         <v>35.697746892574422</v>
       </c>
       <c r="R13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-2.308056023211654</v>
       </c>
       <c r="T13" s="1">
@@ -1329,31 +2105,31 @@
         <v>11</v>
       </c>
       <c r="L14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="M14" s="1">
-        <f>(D14-$C14)/$C14*100</f>
+        <f t="shared" si="2"/>
         <v>20.400341614608831</v>
       </c>
       <c r="N14" s="1">
-        <f>(E14-$C14)/$C14*100</f>
+        <f t="shared" si="3"/>
         <v>20.381245741812307</v>
       </c>
       <c r="O14" s="1">
-        <f>(F14-$C14)/$C14*100</f>
+        <f t="shared" si="4"/>
         <v>18.492481599831113</v>
       </c>
       <c r="P14" s="1">
-        <f>(G14-$C14)/$C14*100</f>
+        <f t="shared" si="5"/>
         <v>18.817879110650516</v>
       </c>
       <c r="Q14" s="1">
-        <f>(H14-$C14)/$C14*100</f>
+        <f t="shared" si="6"/>
         <v>23.426893514120394</v>
       </c>
       <c r="R14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>0.58170442659605281</v>
       </c>
       <c r="T14" s="1">
@@ -1404,31 +2180,31 @@
         <v>12</v>
       </c>
       <c r="L15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="M15" s="1">
-        <f>(D15-$C15)/$C15*100</f>
+        <f t="shared" si="2"/>
         <v>24.544999755966625</v>
       </c>
       <c r="N15" s="1">
-        <f>(E15-$C15)/$C15*100</f>
+        <f t="shared" si="3"/>
         <v>22.094660549563187</v>
       </c>
       <c r="O15" s="1">
-        <f>(F15-$C15)/$C15*100</f>
+        <f t="shared" si="4"/>
         <v>13.394016301430042</v>
       </c>
       <c r="P15" s="1">
-        <f>(G15-$C15)/$C15*100</f>
+        <f t="shared" si="5"/>
         <v>11.759358680267461</v>
       </c>
       <c r="Q15" s="1">
-        <f>(H15-$C15)/$C15*100</f>
+        <f t="shared" si="6"/>
         <v>23.763726877836895</v>
       </c>
       <c r="R15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>3.3458197081360797</v>
       </c>
       <c r="T15" s="1">
@@ -1479,31 +2255,31 @@
         <v>13</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.9285714285714286</v>
       </c>
       <c r="M16" s="1">
-        <f>(D16-$C16)/$C16*100</f>
+        <f t="shared" si="2"/>
         <v>-18.585981805676326</v>
       </c>
       <c r="N16" s="1">
-        <f>(E16-$C16)/$C16*100</f>
+        <f t="shared" si="3"/>
         <v>-18.598894324980208</v>
       </c>
       <c r="O16" s="1">
-        <f>(F16-$C16)/$C16*100</f>
+        <f t="shared" si="4"/>
         <v>-19.87606576949532</v>
       </c>
       <c r="P16" s="1">
-        <f>(G16-$C16)/$C16*100</f>
+        <f t="shared" si="5"/>
         <v>-19.656033845075729</v>
       </c>
       <c r="Q16" s="1">
-        <f>(H16-$C16)/$C16*100</f>
+        <f t="shared" si="6"/>
         <v>-16.539444826556977</v>
       </c>
       <c r="R16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-31.32745889406544</v>
       </c>
       <c r="T16" s="1">
@@ -1554,31 +2330,31 @@
         <v>14</v>
       </c>
       <c r="L17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="M17" s="1">
-        <f>(D17-$C17)/$C17*100</f>
+        <f t="shared" si="2"/>
         <v>17.815829264632892</v>
       </c>
       <c r="N17" s="1">
-        <f>(E17-$C17)/$C17*100</f>
+        <f t="shared" si="3"/>
         <v>15.497881967288803</v>
       </c>
       <c r="O17" s="1">
-        <f>(F17-$C17)/$C17*100</f>
+        <f t="shared" si="4"/>
         <v>7.2673338181146612</v>
       </c>
       <c r="P17" s="1">
-        <f>(G17-$C17)/$C17*100</f>
+        <f t="shared" si="5"/>
         <v>5.7209968027517046</v>
       </c>
       <c r="Q17" s="1">
-        <f>(H17-$C17)/$C17*100</f>
+        <f t="shared" si="6"/>
         <v>16.5856389302492</v>
       </c>
       <c r="R17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>-2.2379583780601831</v>
       </c>
       <c r="T17" s="1">
@@ -1609,19 +2385,19 @@
         <v>14.774250398381099</v>
       </c>
       <c r="N18">
-        <f t="shared" ref="N18:R18" si="2">AVERAGE(N4:N17)</f>
+        <f t="shared" ref="N18:Q18" si="8">AVERAGE(N4:N17)</f>
         <v>14.430829687142005</v>
       </c>
       <c r="O18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10.27021804111931</v>
       </c>
       <c r="P18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>10.099099410119843</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>20.39825844345981</v>
       </c>
       <c r="R18">
@@ -1642,15 +2418,15 @@
         <v>16.265672168630395</v>
       </c>
       <c r="O19">
-        <f t="shared" ref="O19:R19" si="3">AVERAGE(O4:O13)</f>
+        <f t="shared" ref="O19:Q19" si="9">AVERAGE(O4:O13)</f>
         <v>12.450528662578986</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>12.474519099308385</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>23.833880371278774</v>
       </c>
       <c r="R19">
@@ -1671,15 +2447,15 @@
         <v>9.843723483421023</v>
       </c>
       <c r="O20">
-        <f t="shared" ref="O20:R20" si="4">AVERAGE(O14:O17)</f>
+        <f t="shared" ref="O20:Q20" si="10">AVERAGE(O14:O17)</f>
         <v>4.8194414874701241</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>4.1605501871484876</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>11.809203623912378</v>
       </c>
       <c r="R20">
@@ -1692,6 +2468,7 @@
     <sortCondition ref="Y4:Y17"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/irace/results/scaled/benchmark.xlsx
+++ b/irace/results/scaled/benchmark.xlsx
@@ -729,11 +729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186084736"/>
-        <c:axId val="186098816"/>
+        <c:axId val="87055744"/>
+        <c:axId val="87073920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186084736"/>
+        <c:axId val="87055744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -744,12 +744,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186098816"/>
+        <c:crossAx val="87073920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186098816"/>
+        <c:axId val="87073920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -760,7 +760,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186084736"/>
+        <c:crossAx val="87055744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -803,7 +803,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>x=y</c:v>
           </c:tx>
@@ -895,125 +895,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186751232"/>
-        <c:axId val="186753408"/>
+        <c:axId val="87145856"/>
+        <c:axId val="87148416"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Taillard</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'taillard-uchoa'!$S$8:$S$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>20.879779529894467</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>27.670717377400312</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.343645672767838</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.409705438619621</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19.806646614478733</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>30.950461363987831</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>38.555966434362112</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>28.081001733672473</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>30.03803314316761</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.066849282919506</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.963521660603917</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>34.966677881144186</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'taillard-uchoa'!$T$8:$T$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.58719938703379704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3193913522036058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.277906445341237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6336951267741804</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7455005045705421</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2256301871230393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8010240364101775</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8071194462371762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8393607027948726</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5551754106115441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4486615281558315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5384536873580097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:v>Uchoa</c:v>
           </c:tx>
@@ -1159,6 +1049,116 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Taillard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'taillard-uchoa'!$S$8:$S$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>20.879779529894467</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27.670717377400312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.343645672767838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.409705438619621</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.806646614478733</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.950461363987831</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38.555966434362112</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28.081001733672473</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>30.03803314316761</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.066849282919506</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.963521660603917</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.966677881144186</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'taillard-uchoa'!$T$8:$T$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.58719938703379704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3193913522036058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.277906445341237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6336951267741804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7455005045705421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2256301871230393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8010240364101775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8071194462371762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8393607027948726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5551754106115441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4486615281558315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5384536873580097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1167,11 +1167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="186751232"/>
-        <c:axId val="186753408"/>
+        <c:axId val="87145856"/>
+        <c:axId val="87148416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="186751232"/>
+        <c:axId val="87145856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,12 +1202,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186753408"/>
+        <c:crossAx val="87148416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="186753408"/>
+        <c:axId val="87148416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1238,7 +1238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="186751232"/>
+        <c:crossAx val="87145856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1282,7 +1282,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="0"/>
           <c:tx>
             <c:v>x=y</c:v>
           </c:tx>
@@ -1351,122 +1351,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47659648"/>
-        <c:axId val="47658112"/>
+        <c:axId val="86257024"/>
+        <c:axId val="86738816"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Taillard</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'taillard-uchoa'!$Z$8:$Z$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>17.521317877357326</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25.559414555785288</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23.364575022656673</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>20.300273908394484</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>22.925137409740675</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>25.365637403989883</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42.444318020196263</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>33.449818407299141</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33.752057946537576</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30.272017542894638</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>38.824417253864496</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>36.069010618472142</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'taillard-uchoa'!$AA$8:$AA$19</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>0.58719938703379704</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.3193913522036058</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.277906445341237</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.6336951267741804</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7455005045705421</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.2256301871230393</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.8010240364101775</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.8071194462371762</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8393607027948726</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4.5551754106115441</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6.4486615281558315</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.5384536873580097</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
@@ -1615,6 +1505,116 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Taillard</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'taillard-uchoa'!$Z$8:$Z$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>17.521317877357326</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.559414555785288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.364575022656673</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20.300273908394484</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.925137409740675</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.365637403989883</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.444318020196263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33.449818407299141</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.752057946537576</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.272017542894638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>38.824417253864496</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.069010618472142</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'taillard-uchoa'!$AA$8:$AA$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.58719938703379704</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.3193913522036058</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.277906445341237</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6336951267741804</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7455005045705421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2256301871230393</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.8010240364101775</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.8071194462371762</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8393607027948726</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5551754106115441</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4486615281558315</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.5384536873580097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1623,11 +1623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="47659648"/>
-        <c:axId val="47658112"/>
+        <c:axId val="86257024"/>
+        <c:axId val="86738816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="47659648"/>
+        <c:axId val="86257024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1658,12 +1658,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47658112"/>
+        <c:crossAx val="86738816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="47658112"/>
+        <c:axId val="86738816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1694,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="47659648"/>
+        <c:crossAx val="86257024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3000,8 +3000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B5:AD44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z33" sqref="Z33"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W59" sqref="W59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
